--- a/4. view_014_G.xlsx
+++ b/4. view_014_G.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Код товара</t>
   </si>
@@ -40,60 +40,78 @@
     <t>Примечание</t>
   </si>
   <si>
-    <t>4189</t>
-  </si>
-  <si>
-    <t>5328</t>
-  </si>
-  <si>
-    <t>5841</t>
-  </si>
-  <si>
-    <t>6122</t>
-  </si>
-  <si>
-    <t>6136</t>
-  </si>
-  <si>
-    <t>6799</t>
-  </si>
-  <si>
-    <t>6935</t>
-  </si>
-  <si>
-    <t>7139</t>
-  </si>
-  <si>
-    <t>7277</t>
-  </si>
-  <si>
-    <t>7331</t>
-  </si>
-  <si>
-    <t>7481</t>
-  </si>
-  <si>
-    <t>7497</t>
-  </si>
-  <si>
-    <t>9300</t>
+    <t>01875</t>
+  </si>
+  <si>
+    <t>02811</t>
+  </si>
+  <si>
+    <t>02911</t>
+  </si>
+  <si>
+    <t>04183</t>
+  </si>
+  <si>
+    <t>04189</t>
+  </si>
+  <si>
+    <t>05230</t>
+  </si>
+  <si>
+    <t>05328</t>
+  </si>
+  <si>
+    <t>05831</t>
+  </si>
+  <si>
+    <t>06122</t>
+  </si>
+  <si>
+    <t>06799</t>
+  </si>
+  <si>
+    <t>06935</t>
+  </si>
+  <si>
+    <t>07139</t>
+  </si>
+  <si>
+    <t>07481</t>
+  </si>
+  <si>
+    <t>09300</t>
+  </si>
+  <si>
+    <t>09359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Азот баллон 50л </t>
+  </si>
+  <si>
+    <t>Хобби нож МЕК-60</t>
+  </si>
+  <si>
+    <t>Ручная таль (подъемный цепной блок) 1 тонн</t>
+  </si>
+  <si>
+    <t>Спецодежда для сварщика</t>
   </si>
   <si>
     <t>Спец.обувь мужские для рабочих,ГОСТ 28507-99,UzTR.5-011:2017*</t>
   </si>
   <si>
+    <t>Специальная одежда пиджаки</t>
+  </si>
+  <si>
     <t>Quloqchin( беруши)</t>
   </si>
   <si>
-    <t>Спецодежда летный из 100 х/б размеры 48,50,52,54,56</t>
+    <t>Наушники противошумные СОМЗ-77 Победа™ арт. 60677</t>
   </si>
   <si>
     <t>Очки защитные ЗНГ1 PANORAMA</t>
   </si>
   <si>
-    <t>ИШЧИЛАР МАХСУС КИЙИМИ</t>
-  </si>
-  <si>
     <t>Маски наркозные, дыхательные (резиновые, латексные, из полимерных материалов)</t>
   </si>
   <si>
@@ -103,70 +121,70 @@
     <t>Спец.обувь мужские для рабочих,ГОСТ 28507-99</t>
   </si>
   <si>
-    <t>Велосипед без двигателя VELOMAX24</t>
-  </si>
-  <si>
-    <t>Комбинезон защитный Тайвек</t>
-  </si>
-  <si>
     <t>Специальная форменная одежда ГОСТ 27575-87</t>
   </si>
   <si>
-    <t>Велосипед без двигателя VM-181</t>
-  </si>
-  <si>
     <t>Каска защитная СОМЗ-55 "FavoriT Trek"</t>
   </si>
   <si>
+    <t>Сварочная перчатка</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
     <t>Pair</t>
   </si>
   <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t>Each</t>
-  </si>
-  <si>
-    <t>Pack</t>
-  </si>
-  <si>
-    <t>Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 72089.0 Reservation № 5641.0</t>
-  </si>
-  <si>
-    <t>Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 71942.0 Reservation № 5601.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82496.0 Reservation № 6587.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82501.0 Reservation № 6590.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82509.0 Reservation № 6593.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82500.0 Reservation № 6595.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82526.0 Reservation № 6597.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82511.0 Reservation № 6599.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82495.0 Reservation № 6601.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82510.0 Reservation № 6603.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82505.0 Reservation № 6605.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82520.0 Reservation № 6607.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82525.0 Reservation № 6610.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82498.0 Reservation № 6613.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82499.0 Reservation № 6616.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82497.0 Reservation № 6619.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82528.0 Reservation № 6623.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82518.0 Reservation № 6626.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82508.0 Reservation № 6629.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82512.0 Reservation № 6632.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82521.0 Reservation № 6635.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82517.0 Reservation № 6638.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82527.0 Reservation № 6641.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82506.0 Reservation № 6645.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82494.0 Reservation № 6647.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82516.0 Reservation № 6650.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82515.0 Reservation № 6653.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82503.0 Reservation № 6656.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82504.0 Reservation № 6659.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82502.0 Reservation № 6662.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82524.0 Reservation № 6665.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82523.0 Reservation № 6668.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82522.0 Reservation № 6671.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82513.0 Reservation № 6674.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82519.0 Reservation № 6677.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82493.0 Reservation № 6680.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82514.0 Reservation № 6683.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 82507.0 Reservation № 6686.0</t>
-  </si>
-  <si>
-    <t>Reserved by Ulugbek  Xamroyev Maksudovich WO № 42924.0 Reservation № 6091.0Reserved by Mansur Xasanov Tulqin o'g'li WO № 76762.0 Reservation № 6408.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 81239.0 Reservation № 6509.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 81238.0 Reservation № 6510.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 81236.0 Reservation № 6512.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 81237.0 Reservation № 6513.0</t>
-  </si>
-  <si>
-    <t>Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 71942.0 Reservation № 5609.0</t>
-  </si>
-  <si>
-    <t>Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 71942.0 Reservation № 5606.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 81201.0 Reservation № 6455.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 81204.0 Reservation № 6456.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 81203.0 Reservation № 6457.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 81202.0 Reservation № 6458.0Reserved by Mansur Xasanov Tulqin o'g'li WO № 81210.0 Reservation № 6462.0</t>
-  </si>
-  <si>
-    <t>Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 71942.0 Reservation № 5603.0Reserved by Mansur Xasanov Tulqin o'g'li WO № 72145.0 Reservation № 5696.0Reserved by Mansur Xasanov Tulqin o'g'li WO № 77420.0 Reservation № 6287.0</t>
-  </si>
-  <si>
-    <t>Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 71942.0 Reservation № 5600.0Reserved by Mansur Xasanov Tulqin o'g'li WO № 77619.0 Reservation № 6330.0</t>
-  </si>
-  <si>
-    <t>Reserved by Sarvar Rahmonov Ruslan o'g'li WO № 66958.0 Reservation № 4776.0Reserved by Sarvar Rahmonov Ruslan o'g'li WO № 66955.0 Reservation № 4777.0Reserved by Sarvar Rahmonov Ruslan o'g'li WO № 69199.0 Reservation № 4778.0Reserved by Sarvar Rahmonov Ruslan o'g'li WO № 71736.0 Reservation № 5501.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 71942.0 Reservation № 5599.0Reserved by Mansur Xasanov Tulqin o'g'li WO № 72145.0 Reservation № 5697.0Reserved by Mansur Xasanov Tulqin o'g'li WO № 77619.0 Reservation № 6329.0</t>
-  </si>
-  <si>
-    <t>Reserved by Sarvar Rahmonov Ruslan o'g'li WO № 71736.0 Reservation № 5525.0Reserved by Mansur Xasanov Tulqin o'g'li WO № 76630.0 Reservation № 6137.0</t>
-  </si>
-  <si>
-    <t>Reserved by Mansur Xasanov Tulqin o'g'li WO № 73529.0 Reservation № 5980.0</t>
-  </si>
-  <si>
-    <t>Reserved by Sarvar Rahmonov Ruslan o'g'li WO № 66958.0 Reservation № 4446.0Reserved by Sarvar Rahmonov Ruslan o'g'li WO № 66955.0 Reservation № 4744.0Reserved by Sarvar Rahmonov Ruslan o'g'li WO № 71736.0 Reservation № 5500.0Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 71942.0 Reservation № 5598.0Reserved by Mansur Xasanov Tulqin o'g'li WO № 72145.0 Reservation № 5702.0Reserved by Mansur Xasanov Tulqin o'g'li WO № 77619.0 Reservation № 6328.0</t>
-  </si>
-  <si>
-    <t>Reserved by Sarvar Rahmonov Ruslan o'g'li WO № 53028.0 Reservation № 3150.0</t>
-  </si>
-  <si>
-    <t>Reserved by Mirsaid Xaydorov Baxtiyor o'g'li WO № 71942.0 Reservation № 5602.0Reserved by Ulugbek  Xamroyev Maksudovich WO № 42924.0 Reservation № 6092.0Reserved by Mansur Xasanov Tulqin o'g'li WO № 77420.0 Reservation № 6286.0Reserved by Mansur Xasanov Tulqin o'g'li WO № 77619.0 Reservation № 6331.0</t>
+    <t>Reserved by Mirjakhon Toirov WO № -11.0 Reservation № -11.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 58141.0 Reservation № 6135.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 75126.0 Reservation № 6088.0Reserved by Mirjakhon Toirov WO № 75126.0 Reservation № 6089.0Reserved by Mirjakhon Toirov WO № 75126.0 Reservation № 6090.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 72547.0 Reservation № 5753.0Reserved by Mirjakhon Toirov WO № 71732.0 Reservation № 6143.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 71733.0 Reservation № 5516.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 71733.0 Reservation № 5517.0Reserved by Mirjakhon Toirov WO № 72547.0 Reservation № 5780.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 72547.0 Reservation № 5750.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 71732.0 Reservation № 5514.0Reserved by Mirjakhon Toirov WO № 71733.0 Reservation № 5522.0Reserved by Mirjakhon Toirov WO № 72547.0 Reservation № 5749.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 71732.0 Reservation № 5513.0Reserved by Mirjakhon Toirov WO № 71733.0 Reservation № 5521.0Reserved by Mirjakhon Toirov WO № 72547.0 Reservation № 5748.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 71732.0 Reservation № 5511.0Reserved by Mirjakhon Toirov WO № 71733.0 Reservation № 5520.0Reserved by Mirjakhon Toirov WO № 72547.0 Reservation № 5747.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 71732.0 Reservation № 5512.0Reserved by Mirjakhon Toirov WO № 71733.0 Reservation № 5519.0Reserved by Mirjakhon Toirov WO № 72547.0 Reservation № 5746.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 71732.0 Reservation № 5493.0Reserved by Mirjakhon Toirov WO № 72547.0 Reservation № 5752.0Reserved by Mirjakhon Toirov WO № 76435.0 Reservation № 6145.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 71732.0 Reservation № 5494.0Reserved by Mirjakhon Toirov WO № 76435.0 Reservation № 6144.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 71732.0 Reservation № 5510.0Reserved by Mirjakhon Toirov WO № 71733.0 Reservation № 5518.0Reserved by Mirjakhon Toirov WO № 72547.0 Reservation № 5744.0</t>
+  </si>
+  <si>
+    <t>Reserved by Mirjakhon Toirov WO № 58252.0 Reservation № 5928.0Reserved by Mirjakhon Toirov WO № 71732.0 Reservation № 5929.0</t>
   </si>
 </sst>
 </file>
@@ -524,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,22 +582,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>173913.05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>173913.05</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -590,22 +608,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>74000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -616,22 +634,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>143469.5666666667</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1434695.666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -642,22 +660,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>60000</v>
+        <v>634782.61</v>
       </c>
       <c r="H5">
-        <v>60000</v>
+        <v>1269565.22</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>308598.2628571428</v>
+        <v>173913.05</v>
       </c>
       <c r="H6">
-        <v>1851589.577142857</v>
+        <v>173913.05</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -694,22 +712,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>640000</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1920000</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -720,22 +738,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>112000</v>
+        <v>2000</v>
       </c>
       <c r="H8">
-        <v>224000</v>
+        <v>2000</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -746,22 +764,22 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>204347.8288888889</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1430434.802222222</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -772,22 +790,22 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>1322500</v>
+        <v>60000</v>
       </c>
       <c r="H10">
-        <v>2645000</v>
+        <v>180000</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -798,22 +816,22 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>31700</v>
+        <v>640000</v>
       </c>
       <c r="H11">
-        <v>221900</v>
+        <v>1920000</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -824,22 +842,22 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>489000</v>
+        <v>112000</v>
       </c>
       <c r="H12">
-        <v>2934000</v>
+        <v>336000</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -850,22 +868,22 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>1049212</v>
+        <v>204347.8288888889</v>
       </c>
       <c r="H13">
-        <v>1049212</v>
+        <v>613043.4866666666</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -876,22 +894,74 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>489000</v>
+      </c>
+      <c r="H14">
+        <v>978000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
         <v>59200</v>
       </c>
-      <c r="H14">
-        <v>236800</v>
-      </c>
-      <c r="I14" t="s">
-        <v>50</v>
+      <c r="H15">
+        <v>177600</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
